--- a/biology/Médecine/Virus_de_Bourbon/Virus_de_Bourbon.xlsx
+++ b/biology/Médecine/Virus_de_Bourbon/Virus_de_Bourbon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus de Bourbon (BOUV) est un virus identifié en février 2015 dans le sang d'un homme du comté de Bourbon au Kansas[1] mort après avoir été mordu par une tique[1]. Il n'existe actuellement aucun traitement ni vaccin contre ce virus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus de Bourbon (BOUV) est un virus identifié en février 2015 dans le sang d'un homme du comté de Bourbon au Kansas mort après avoir été mordu par une tique. Il n'existe actuellement aucun traitement ni vaccin contre ce virus.
 Le virus de Bourbon est du genre Thogotovirus, de la famille des Orthomyxoviridae.
 </t>
         </is>
